--- a/docs/blank.xlsx
+++ b/docs/blank.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\projectX\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83270161-1558-4429-BAF3-6321F3EF03E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5364A8FF-DCD7-4EE3-8DE5-6F45D101456C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="3300" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="345" yWindow="3765" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="АОСР " sheetId="6" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="38">
   <si>
     <t>Мы, нижеподписавшиеся:</t>
   </si>
@@ -130,10 +130,6 @@
     <t>подтверждающие качество и сертификаты о происхождении товара формы СТ-KZ и индустриальные сертификаты)</t>
   </si>
   <si>
-    <t xml:space="preserve">(наименование материалов, конструкций, изделий со ссылкой на сертификаты или другие документы,
-</t>
-  </si>
-  <si>
     <t>АКТ №</t>
   </si>
   <si>
@@ -155,14 +151,14 @@
     <t>Город строительства (г.Костанай)</t>
   </si>
   <si>
-    <t>ы</t>
+    <t>(наименование материалов, конструкций, изделий со ссылкой на сертификаты или другие документы,</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -178,12 +174,6 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="8"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <name val="Times New Roman"/>
@@ -193,19 +183,6 @@
     <font>
       <u/>
       <sz val="11"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
@@ -249,98 +226,88 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -686,14 +653,16 @@
   </sheetPr>
   <dimension ref="A1:I62"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:I13"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A43" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37:I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="8.85546875" style="1" customWidth="1"/>
-    <col min="3" max="7" width="9.28515625" style="1"/>
+    <col min="3" max="4" width="9.28515625" style="1"/>
+    <col min="5" max="5" width="11" style="1" customWidth="1"/>
+    <col min="6" max="7" width="9.28515625" style="1"/>
     <col min="8" max="8" width="9.28515625" style="1" customWidth="1"/>
     <col min="9" max="9" width="17.140625" style="1" customWidth="1"/>
     <col min="10" max="10" width="9.28515625" style="1" customWidth="1"/>
@@ -701,667 +670,667 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
     </row>
     <row r="3" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
     </row>
     <row r="4" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
     </row>
     <row r="5" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="3"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" s="18"/>
-      <c r="E6" s="5"/>
-      <c r="H6" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="I6" s="13"/>
+      <c r="A6" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="17"/>
+      <c r="E6" s="8"/>
+      <c r="H6" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" s="12"/>
     </row>
     <row r="7" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="G7" s="7"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:9" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-    </row>
-    <row r="9" spans="1:9" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
+      <c r="A8" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+    </row>
+    <row r="9" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
     </row>
     <row r="10" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" s="33"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="33"/>
-    </row>
-    <row r="14" spans="1:9" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="20" t="s">
+      <c r="A13" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+    </row>
+    <row r="14" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" s="33"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="33"/>
-    </row>
-    <row r="17" spans="1:9" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="21" t="s">
+      <c r="A16" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+    </row>
+    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
-    </row>
-    <row r="18" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="24" t="s">
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+    </row>
+    <row r="18" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" s="33"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="33"/>
+      <c r="A19" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
     </row>
     <row r="20" spans="1:9" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="21" t="s">
+      <c r="A20" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
     </row>
     <row r="22" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="B23" s="33"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="33"/>
+      <c r="A23" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
     </row>
     <row r="24" spans="1:9" ht="12.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="21" t="s">
+      <c r="A24" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B24" s="22"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="22"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="B25" s="33"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="33"/>
-      <c r="I25" s="33"/>
+      <c r="A25" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
     </row>
     <row r="26" spans="1:9" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="21" t="s">
+      <c r="A26" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="21"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="21"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="11" t="s">
+      <c r="A28" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
+      <c r="A29" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
     </row>
     <row r="30" spans="1:9" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="26" t="s">
+      <c r="A30" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="26"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="26"/>
-      <c r="I30" s="26"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="23"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="11" t="s">
+      <c r="A31" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="14"/>
-    </row>
-    <row r="33" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="27" t="s">
+      <c r="A32" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+    </row>
+    <row r="33" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="27"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="27"/>
-      <c r="H33" s="27"/>
-      <c r="I33" s="27"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="24"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="11" t="s">
+      <c r="A34" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B34" s="11"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="14"/>
-      <c r="H35" s="14"/>
-      <c r="I35" s="14"/>
-    </row>
-    <row r="36" spans="1:9" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="B36" s="25"/>
-      <c r="C36" s="25"/>
-      <c r="D36" s="25"/>
-      <c r="E36" s="25"/>
-      <c r="F36" s="25"/>
-      <c r="G36" s="25"/>
-      <c r="H36" s="25"/>
-      <c r="I36" s="25"/>
-    </row>
-    <row r="37" spans="1:9" ht="9.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="28" t="s">
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+    </row>
+    <row r="35" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" s="13"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
+    </row>
+    <row r="36" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" s="22"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="22"/>
+      <c r="I36" s="22"/>
+    </row>
+    <row r="37" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="B37" s="28"/>
-      <c r="C37" s="28"/>
-      <c r="D37" s="28"/>
-      <c r="E37" s="28"/>
-      <c r="F37" s="28"/>
-      <c r="G37" s="28"/>
-      <c r="H37" s="28"/>
-      <c r="I37" s="28"/>
-    </row>
-    <row r="38" spans="1:9" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="24" t="s">
+      <c r="B37" s="25"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="25"/>
+      <c r="I37" s="25"/>
+    </row>
+    <row r="38" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B38" s="24"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="24"/>
-      <c r="E38" s="24"/>
-      <c r="F38" s="24"/>
-      <c r="G38" s="24"/>
-      <c r="H38" s="24"/>
-      <c r="I38" s="24"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="21"/>
+      <c r="I38" s="21"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="14"/>
-      <c r="H39" s="14"/>
-      <c r="I39" s="14"/>
-    </row>
-    <row r="40" spans="1:9" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="21" t="s">
+      <c r="A39" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B39" s="13"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="13"/>
+    </row>
+    <row r="40" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B40" s="21"/>
-      <c r="C40" s="21"/>
-      <c r="D40" s="21"/>
-      <c r="E40" s="21"/>
-      <c r="F40" s="21"/>
-      <c r="G40" s="21"/>
-      <c r="H40" s="21"/>
-      <c r="I40" s="21"/>
+      <c r="B40" s="20"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B41" s="16" t="s">
+      <c r="B41" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C41" s="15"/>
+      <c r="D41" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E41" s="12"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B42" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C41" s="16"/>
-      <c r="D41" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="E41" s="13"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B42" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C42" s="16"/>
-      <c r="D42" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="E42" s="13"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E42" s="12"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="29" t="s">
+      <c r="A44" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="B44" s="29"/>
-      <c r="C44" s="29"/>
-      <c r="D44" s="29"/>
-      <c r="E44" s="29"/>
-      <c r="F44" s="29"/>
-      <c r="G44" s="29"/>
-      <c r="H44" s="29"/>
-      <c r="I44" s="29"/>
+      <c r="B44" s="26"/>
+      <c r="C44" s="26"/>
+      <c r="D44" s="26"/>
+      <c r="E44" s="26"/>
+      <c r="F44" s="26"/>
+      <c r="G44" s="26"/>
+      <c r="H44" s="26"/>
+      <c r="I44" s="26"/>
     </row>
     <row r="45" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="24" t="s">
+      <c r="A45" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B45" s="24"/>
-      <c r="C45" s="24"/>
-      <c r="D45" s="24"/>
-      <c r="E45" s="24"/>
-      <c r="F45" s="24"/>
-      <c r="G45" s="24"/>
-      <c r="H45" s="24"/>
-      <c r="I45" s="24"/>
+      <c r="B45" s="21"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="21"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="21"/>
+      <c r="H45" s="21"/>
+      <c r="I45" s="21"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="30" t="s">
+      <c r="A46" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="B46" s="30"/>
-      <c r="C46" s="30"/>
-      <c r="D46" s="30"/>
-      <c r="E46" s="30"/>
-      <c r="F46" s="30"/>
-      <c r="G46" s="30"/>
-      <c r="H46" s="30"/>
-      <c r="I46" s="30"/>
+      <c r="B46" s="27"/>
+      <c r="C46" s="27"/>
+      <c r="D46" s="27"/>
+      <c r="E46" s="27"/>
+      <c r="F46" s="27"/>
+      <c r="G46" s="27"/>
+      <c r="H46" s="27"/>
+      <c r="I46" s="27"/>
     </row>
     <row r="47" spans="1:9" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="B47" s="31"/>
-      <c r="C47" s="31"/>
-      <c r="D47" s="31"/>
-      <c r="E47" s="31"/>
-      <c r="F47" s="31"/>
-      <c r="G47" s="31"/>
-      <c r="H47" s="31"/>
-      <c r="I47" s="31"/>
+      <c r="A47" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="B47" s="28"/>
+      <c r="C47" s="28"/>
+      <c r="D47" s="28"/>
+      <c r="E47" s="28"/>
+      <c r="F47" s="28"/>
+      <c r="G47" s="28"/>
+      <c r="H47" s="28"/>
+      <c r="I47" s="28"/>
     </row>
     <row r="48" spans="1:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="21" t="s">
+      <c r="A48" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B48" s="21"/>
-      <c r="C48" s="21"/>
-      <c r="D48" s="21"/>
-      <c r="E48" s="21"/>
-      <c r="F48" s="21"/>
-      <c r="G48" s="21"/>
-      <c r="H48" s="21"/>
-      <c r="I48" s="21"/>
+      <c r="B48" s="20"/>
+      <c r="C48" s="20"/>
+      <c r="D48" s="20"/>
+      <c r="E48" s="20"/>
+      <c r="F48" s="20"/>
+      <c r="G48" s="20"/>
+      <c r="H48" s="20"/>
+      <c r="I48" s="20"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="24" t="s">
+      <c r="A50" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B50" s="24"/>
+      <c r="B50" s="21"/>
     </row>
     <row r="51" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="14" t="s">
+      <c r="A51" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B51" s="14"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="9"/>
-      <c r="E51" s="9"/>
-      <c r="F51" s="9"/>
-      <c r="G51" s="9"/>
-      <c r="H51" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="I51" s="32"/>
+      <c r="B51" s="13"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="I51" s="29"/>
     </row>
     <row r="52" spans="1:9" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="21" t="s">
+      <c r="A52" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B52" s="21"/>
-      <c r="C52" s="21"/>
-      <c r="D52" s="21"/>
-      <c r="E52" s="21"/>
-      <c r="F52" s="21"/>
-      <c r="G52" s="21"/>
-      <c r="H52" s="21"/>
-      <c r="I52" s="21"/>
+      <c r="B52" s="20"/>
+      <c r="C52" s="20"/>
+      <c r="D52" s="20"/>
+      <c r="E52" s="20"/>
+      <c r="F52" s="20"/>
+      <c r="G52" s="20"/>
+      <c r="H52" s="20"/>
+      <c r="I52" s="20"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="11" t="s">
+      <c r="A54" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B54" s="11"/>
+      <c r="B54" s="10"/>
     </row>
     <row r="55" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="14" t="s">
+      <c r="A55" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B55" s="14"/>
-      <c r="C55" s="14"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="9"/>
-      <c r="F55" s="9"/>
-      <c r="G55" s="9"/>
-      <c r="H55" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="I55" s="32"/>
+      <c r="B55" s="13"/>
+      <c r="C55" s="13"/>
+      <c r="D55" s="13"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="I55" s="29"/>
     </row>
     <row r="56" spans="1:9" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="21" t="s">
+      <c r="A56" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B56" s="21"/>
-      <c r="C56" s="21"/>
-      <c r="D56" s="21"/>
-      <c r="E56" s="21"/>
-      <c r="F56" s="21"/>
-      <c r="G56" s="21"/>
-      <c r="H56" s="21"/>
-      <c r="I56" s="21"/>
+      <c r="B56" s="20"/>
+      <c r="C56" s="20"/>
+      <c r="D56" s="20"/>
+      <c r="E56" s="20"/>
+      <c r="F56" s="20"/>
+      <c r="G56" s="20"/>
+      <c r="H56" s="20"/>
+      <c r="I56" s="20"/>
     </row>
     <row r="58" spans="1:9" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="14" t="s">
+      <c r="A58" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B58" s="14"/>
-      <c r="C58" s="14"/>
-      <c r="D58" s="14"/>
-      <c r="E58" s="9"/>
-      <c r="F58" s="9"/>
-      <c r="G58" s="9"/>
-      <c r="H58" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="I58" s="32"/>
+      <c r="B58" s="13"/>
+      <c r="C58" s="13"/>
+      <c r="D58" s="13"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="5"/>
+      <c r="H58" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="I58" s="29"/>
     </row>
     <row r="59" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="21" t="s">
+      <c r="A59" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B59" s="21"/>
-      <c r="C59" s="21"/>
-      <c r="D59" s="21"/>
-      <c r="E59" s="21"/>
-      <c r="F59" s="21"/>
-      <c r="G59" s="21"/>
-      <c r="H59" s="21"/>
-      <c r="I59" s="21"/>
+      <c r="B59" s="20"/>
+      <c r="C59" s="20"/>
+      <c r="D59" s="20"/>
+      <c r="E59" s="20"/>
+      <c r="F59" s="20"/>
+      <c r="G59" s="20"/>
+      <c r="H59" s="20"/>
+      <c r="I59" s="20"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="14" t="s">
+      <c r="A61" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B61" s="14"/>
-      <c r="C61" s="14"/>
-      <c r="D61" s="14"/>
-      <c r="E61" s="9"/>
-      <c r="F61" s="9"/>
-      <c r="G61" s="9"/>
-      <c r="H61" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="I61" s="32"/>
+      <c r="B61" s="13"/>
+      <c r="C61" s="13"/>
+      <c r="D61" s="13"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="5"/>
+      <c r="H61" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="I61" s="29"/>
     </row>
     <row r="62" spans="1:9" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="21" t="s">
+      <c r="A62" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B62" s="21"/>
-      <c r="C62" s="21"/>
-      <c r="D62" s="21"/>
-      <c r="E62" s="21"/>
-      <c r="F62" s="21"/>
-      <c r="G62" s="21"/>
-      <c r="H62" s="21"/>
-      <c r="I62" s="21"/>
+      <c r="B62" s="20"/>
+      <c r="C62" s="20"/>
+      <c r="D62" s="20"/>
+      <c r="E62" s="20"/>
+      <c r="F62" s="20"/>
+      <c r="G62" s="20"/>
+      <c r="H62" s="20"/>
+      <c r="I62" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="59">
@@ -1426,7 +1395,7 @@
     <mergeCell ref="A13:I13"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.39370078740157483" top="0.78740157480314965" bottom="0.39370078740157483" header="0.39370078740157483" footer="0.39370078740157483"/>
-  <pageSetup paperSize="9" scale="99" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="97" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader xml:space="preserve">&amp;R
 </oddHeader>
